--- a/public/reports/sales-report.xlsx
+++ b/public/reports/sales-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ZNEAKZ - Sales Report</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date Range</t>
   </si>
   <si>
-    <t>Sun Nov 09 2025 → Sun Nov 09 2025</t>
+    <t>Wed Nov 12 2025 → Mon Nov 17 2025</t>
   </si>
   <si>
     <t>Total Orders</t>
@@ -29,28 +29,22 @@
     <t>Total Sales (₹)</t>
   </si>
   <si>
-    <t>10537.11</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>Total Discount (₹)</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>Unique Customers</t>
   </si>
   <si>
     <t>Average Order Value (₹)</t>
   </si>
   <si>
-    <t>2107.42</t>
-  </si>
-  <si>
     <t>Most Sold Product</t>
   </si>
   <si>
-    <t>ZURIK PRO Black Men's Sports Shoes</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>Order ID</t>
@@ -78,54 +72,6 @@
   </si>
   <si>
     <t>Items</t>
-  </si>
-  <si>
-    <t>g8H2c4hvnp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amegh </t>
-  </si>
-  <si>
-    <t>amegh4@gmail.com</t>
-  </si>
-  <si>
-    <t>9/11/2025</t>
-  </si>
-  <si>
-    <t>Cash on Delivery</t>
-  </si>
-  <si>
-    <t>2412.03</t>
-  </si>
-  <si>
-    <t>Placed</t>
-  </si>
-  <si>
-    <t>ZURIK PRO Black Men's Sports Shoes (x1) ₹2249.55</t>
-  </si>
-  <si>
-    <t>CJuLRRyZEb</t>
-  </si>
-  <si>
-    <t>bLml6FqXCm</t>
-  </si>
-  <si>
-    <t>HcEvAadClq</t>
-  </si>
-  <si>
-    <t>0OVLsyx0F9</t>
-  </si>
-  <si>
-    <t>Razorpay</t>
-  </si>
-  <si>
-    <t>889.00</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>LD-02 Blue Kids Sneakers (x1) ₹799</t>
   </si>
 </sst>
 </file>
@@ -532,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,31 +494,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -596,176 +542,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/sales-report.xlsx
+++ b/public/reports/sales-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>ZNEAKZ - Sales Report</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date Range</t>
   </si>
   <si>
-    <t>Wed Nov 12 2025 → Mon Nov 17 2025</t>
+    <t>Mon Nov 17 2025 → Mon Nov 17 2025</t>
   </si>
   <si>
     <t>Total Orders</t>
@@ -29,49 +29,103 @@
     <t>Total Sales (₹)</t>
   </si>
   <si>
+    <t>1319.89</t>
+  </si>
+  <si>
+    <t>Total Discount (₹)</t>
+  </si>
+  <si>
+    <t>604.88</t>
+  </si>
+  <si>
+    <t>Unique Customers</t>
+  </si>
+  <si>
+    <t>Average Order Value (₹)</t>
+  </si>
+  <si>
+    <t>659.95</t>
+  </si>
+  <si>
+    <t>Most Sold Product</t>
+  </si>
+  <si>
+    <t>ZURIK PRO Black Men's Sports Shoes</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Total (₹)</t>
+  </si>
+  <si>
+    <t>Discount (₹)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>r3OGnRi4ze</t>
+  </si>
+  <si>
+    <t>safan</t>
+  </si>
+  <si>
+    <t>safan@yopmail.com</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>Razorpay</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Total Discount (₹)</t>
-  </si>
-  <si>
-    <t>Unique Customers</t>
-  </si>
-  <si>
-    <t>Average Order Value (₹)</t>
-  </si>
-  <si>
-    <t>Most Sold Product</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Total (₹)</t>
-  </si>
-  <si>
-    <t>Discount (₹)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Items</t>
+    <t>Partially Cancelled</t>
+  </si>
+  <si>
+    <t>COVE White Men's Sports Sneakers (x1) ₹879.7800000000002, Fumes NX  Oasis (x1) ₹1799</t>
+  </si>
+  <si>
+    <t>ZNK176336333705223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amegh </t>
+  </si>
+  <si>
+    <t>amegh04@gmail.com</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>599.89</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>ZURIK PRO Black Men's Sports Shoes (x1) ₹1099.7800000000002</t>
   </si>
 </sst>
 </file>
@@ -478,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,31 +548,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -542,31 +596,89 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
